--- a/excel_0103.xlsx
+++ b/excel_0103.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CFAE8-B3F9-4E9A-8F53-6A9D739B2B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD452F1A-CEE2-43A8-B8F6-7920A59320E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0103" sheetId="7" r:id="rId1"/>
+    <sheet name="0103 完成" sheetId="7" r:id="rId1"/>
     <sheet name="单仓" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0103'!$D$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0103 完成'!$D$1:$E$40</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="152">
   <si>
     <t>首次解析状态:200</t>
   </si>
@@ -331,6 +331,174 @@
   <si>
     <t>https://bitbucket.org/xduo/cool/raw/main/ck/公众号应用边界.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>♦🟥|PG仓</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/PizazzGY/TVBox_warehouse/main/warehouse.txt</t>
+  </si>
+  <si>
+    <t>多线路</t>
+  </si>
+  <si>
+    <t>http://39.101.135.137:8686</t>
+  </si>
+  <si>
+    <t>🛀🏻小白影视</t>
+  </si>
+  <si>
+    <t>http://39.101.135.137:8686/</t>
+  </si>
+  <si>
+    <t>🎇恒星影视</t>
+  </si>
+  <si>
+    <t>http://530.my3v.work/hxck.json</t>
+  </si>
+  <si>
+    <t>🌴青木影视</t>
+  </si>
+  <si>
+    <t>http://530.my3v.work/qm.json</t>
+  </si>
+  <si>
+    <t>💖心动影视</t>
+  </si>
+  <si>
+    <t>http://530.my3v.work/xdck.json</t>
+  </si>
+  <si>
+    <t>xhz</t>
+  </si>
+  <si>
+    <t>http://xhztv.top/tvbox.txt</t>
+  </si>
+  <si>
+    <t>运输车加速</t>
+  </si>
+  <si>
+    <t>https://cf.weixine.net/api.json</t>
+  </si>
+  <si>
+    <t>💠水大侠影视仓库</t>
+  </si>
+  <si>
+    <t>https://gitee.com/GK_6_0/json/raw/master/json.txt</t>
+  </si>
+  <si>
+    <t>📺追剧吧影视</t>
+  </si>
+  <si>
+    <t>https://jihulab.com/jw2/jyf/-/raw/main/jihu.json</t>
+  </si>
+  <si>
+    <t>刘备精选单仓</t>
+  </si>
+  <si>
+    <t>https://raw.liucn.cc/box/dc.txt</t>
+  </si>
+  <si>
+    <t>有毒</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666</t>
+  </si>
+  <si>
+    <t>weixi</t>
+  </si>
+  <si>
+    <t>https://weixine.net/api.json</t>
+  </si>
+  <si>
+    <t>推荐仓库2</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/supermeguo/BoxRes/main/Myuse/lemon.json</t>
+  </si>
+  <si>
+    <t>推荐仓库1</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/tianya7981/jiekou/main/0709</t>
+  </si>
+  <si>
+    <t>心动仓库</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/心动仓库.txt</t>
+  </si>
+  <si>
+    <t>爱TV自营接口</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/tvbox/cang.json</t>
+  </si>
+  <si>
+    <t>🥥拾光源口</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/xmbjm/xmbjm/main/xmbjmdc.json</t>
+  </si>
+  <si>
+    <t>业余日后单仓</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/yyfxz/yyrh/main/fxz.json</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/ZTHA000/tvbox/main/gyck.json</t>
+  </si>
+  <si>
+    <t>🌟星星影视</t>
+  </si>
+  <si>
+    <t>http://154.3.2.66:8889/down/YgOQS9WjkF6R.txt</t>
+  </si>
+  <si>
+    <t>🥝金鹰影视</t>
+  </si>
+  <si>
+    <t>http://530.my3v.work/99668.json</t>
+  </si>
+  <si>
+    <t>天微接口</t>
+  </si>
+  <si>
+    <t>http://tvkj.top/DC.txt</t>
+  </si>
+  <si>
+    <t>🍚饭太硬仓库</t>
+  </si>
+  <si>
+    <t>https://d.kstore.space/download/2904/236.txt</t>
+  </si>
+  <si>
+    <t>拾光精选单仓线路：</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/xmbjm/dc/-/raw/main/sgdc.json</t>
+  </si>
+  <si>
+    <t>欧歌单仓</t>
+  </si>
+  <si>
+    <t>https://nxog.eu.org/nxog/ou1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/a.txt?ref=main</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/b.txt?ref=main</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/c.txt?ref=main</t>
+  </si>
+  <si>
+    <t>💜多多预备仓🍭不做韭菜🍭</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/d.txt?ref=main</t>
   </si>
 </sst>
 </file>
@@ -721,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1289,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E3781C-C0BB-4064-B6F6-C397C16D14D2}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1370,6 +1538,278 @@
       </c>
       <c r="B9" s="2" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/excel_0103.xlsx
+++ b/excel_0103.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD452F1A-CEE2-43A8-B8F6-7920A59320E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E178258D-A54B-420A-A1C3-36FC6525F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0103 完成" sheetId="7" r:id="rId1"/>
+    <sheet name="0107" sheetId="7" r:id="rId1"/>
     <sheet name="单仓" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0103 完成'!$D$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0107'!$D$1:$E$40</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -889,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1459,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E3781C-C0BB-4064-B6F6-C397C16D14D2}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD29"/>
     </sheetView>
   </sheetViews>
